--- a/data-folder/Données_groupe_10.xlsx
+++ b/data-folder/Données_groupe_10.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données10" sheetId="2" r:id="rId1"/>
@@ -498,13 +498,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13.71</v>
+        <v>8.6900000000000013</v>
       </c>
       <c r="B16">
         <v>109</v>
       </c>
       <c r="C16">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,24 +520,24 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>97.52</v>
+        <v>77.33</v>
       </c>
       <c r="B18">
         <v>90</v>
       </c>
       <c r="C18">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>38.590000000000003</v>
+        <v>22.59</v>
       </c>
       <c r="B19">
         <v>101</v>
       </c>
       <c r="C19">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,24 +564,24 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>42.51</v>
+        <v>11.43</v>
       </c>
       <c r="B22">
         <v>115</v>
       </c>
       <c r="C22">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>53.620000000000005</v>
+        <v>38.129999999999995</v>
       </c>
       <c r="B23">
         <v>95</v>
       </c>
       <c r="C23">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,13 +597,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>55.71</v>
+        <v>50.960000000000008</v>
       </c>
       <c r="B25">
         <v>85</v>
       </c>
       <c r="C25">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,57 +619,57 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>77.73</v>
+        <v>36.96</v>
       </c>
       <c r="B27">
         <v>104</v>
       </c>
       <c r="C27">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>99.18</v>
+        <v>96.16</v>
       </c>
       <c r="B28">
         <v>84</v>
       </c>
       <c r="C28">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>30.34</v>
+        <v>15.07</v>
       </c>
       <c r="B29">
         <v>105</v>
       </c>
       <c r="C29">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>24.75</v>
+        <v>22.830000000000002</v>
       </c>
       <c r="B30">
         <v>87</v>
       </c>
       <c r="C30">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>26.640000000000004</v>
+        <v>11.84</v>
       </c>
       <c r="B31">
         <v>107</v>
       </c>
       <c r="C31">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,24 +795,24 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>78.820000000000007</v>
+        <v>33.229999999999997</v>
       </c>
       <c r="B43">
         <v>106</v>
       </c>
       <c r="C43">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7.28</v>
+        <v>5.66</v>
       </c>
       <c r="B44">
         <v>97</v>
       </c>
       <c r="C44">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,24 +828,24 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46.28</v>
+        <v>7.37</v>
       </c>
       <c r="B46">
         <v>121</v>
       </c>
       <c r="C46">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>63.39</v>
+        <v>14.580000000000002</v>
       </c>
       <c r="B47">
         <v>115</v>
       </c>
       <c r="C47">
-        <v>146</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,13 +872,13 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>15.07</v>
+        <v>11.55</v>
       </c>
       <c r="B50">
         <v>95</v>
       </c>
       <c r="C50">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,13 +905,13 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>80.959999999999994</v>
+        <v>24.57</v>
       </c>
       <c r="B53">
         <v>111</v>
       </c>
       <c r="C53">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,24 +927,24 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>48.29</v>
+        <v>27.32</v>
       </c>
       <c r="B55">
         <v>101</v>
       </c>
       <c r="C55">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>74.680000000000007</v>
+        <v>56.86</v>
       </c>
       <c r="B56">
         <v>92</v>
       </c>
       <c r="C56">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,24 +982,24 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>67.38</v>
+        <v>27.12</v>
       </c>
       <c r="B60">
         <v>108</v>
       </c>
       <c r="C60">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>52.38</v>
+        <v>45.43</v>
       </c>
       <c r="B61">
         <v>87</v>
       </c>
       <c r="C61">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,13 +1103,13 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>44.269999999999996</v>
+        <v>23.94</v>
       </c>
       <c r="B71">
         <v>104</v>
       </c>
       <c r="C71">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
